--- a/DOC/Dictionary in Rosette.xlsx
+++ b/DOC/Dictionary in Rosette.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02070663-62B4-4B9E-8C6F-829A3A901326}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
+    <sheet name="brk" sheetId="2" r:id="rId2"/>
+    <sheet name="Rbl ES Plugin Version" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +21,52 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>Lemma Dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many-to-one Normalization Dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brk, Rule-based break iterator data,
+http://userguide.icu-project.org/icudata
+http://userguide.icu-project.org/boundaryanalysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Does rbl supply default dictionary?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document doesn't mention it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is a used defined dictionary supported for Arabic?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consulted order of these two kinds of dictionaries.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +74,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +108,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +401,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A16:C19"/>
+    <mergeCell ref="D16:G19"/>
+    <mergeCell ref="H16:K19"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="D8:G11"/>
+    <mergeCell ref="H8:K11"/>
+    <mergeCell ref="A12:C15"/>
+    <mergeCell ref="D12:G15"/>
+    <mergeCell ref="H12:K15"/>
+    <mergeCell ref="D5:G7"/>
+    <mergeCell ref="H5:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA31C73C-94A7-4DCE-A874-34E781723FC6}">
+  <dimension ref="C4:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:K18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5BE564-E124-49DF-A1E4-399F1146172C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>